--- a/public/ExamplesImportacion/Dclientes.xlsx
+++ b/public/ExamplesImportacion/Dclientes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374CF63-77AE-49D4-AD13-4DFD33270C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8A02E0-B986-470F-9E4F-063FBEA6B6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>DNI</t>
   </si>
@@ -45,10 +45,61 @@
     <t>NOMBRE(CHAR,50)</t>
   </si>
   <si>
-    <t>Fransin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector </t>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>Jeronimo Burgos</t>
+  </si>
+  <si>
+    <t>Estefania Villegas</t>
+  </si>
+  <si>
+    <t>Guillermo Fernandez</t>
+  </si>
+  <si>
+    <t>Eliana Ramirez</t>
+  </si>
+  <si>
+    <t>Jose Carmona</t>
+  </si>
+  <si>
+    <t>Marcela De santis</t>
+  </si>
+  <si>
+    <t>Daniela Franco</t>
+  </si>
+  <si>
+    <t>Rafael Cortes</t>
+  </si>
+  <si>
+    <t>Camilo Berrio</t>
+  </si>
+  <si>
+    <t>Francisco Arias</t>
+  </si>
+  <si>
+    <t>Antonio Merizalde</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>Restrepo</t>
+  </si>
+  <si>
+    <t>Lemus</t>
+  </si>
+  <si>
+    <t>Santana</t>
+  </si>
+  <si>
+    <t>Saldarriaga</t>
+  </si>
+  <si>
+    <t>Posada</t>
+  </si>
+  <si>
+    <t>SECTOR A</t>
   </si>
 </sst>
 </file>
@@ -58,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,15 +141,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,11 +165,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Comma" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -445,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C10900-331B-41E5-B3A8-462A1D97A091}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +499,7 @@
     <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -468,166 +509,252 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14523698</v>
+        <v>20230001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>18745632</v>
+        <v>20230017</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>99745236</v>
+        <v>20230015</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>99745237</v>
+        <v>20230002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>99745238</v>
+        <v>20230006</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>99745239</v>
+        <v>20230013</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>99745240</v>
+        <v>20230019</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>99745241</v>
+        <v>20230014</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>99745242</v>
+        <v>20230010</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>99745243</v>
+        <v>20230008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>99745244</v>
+        <v>20230009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>20408000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>20408000008</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>20408000017</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>20408000022</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20408000004</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
   </sheetData>
